--- a/LAB.xlsx
+++ b/LAB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d3ea72652d11e91e/Documents/Maastricht University/Biomedical Sciences/BMS year 3/BBS3006 - Thesis ^0 Internship/Butterfly/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{13F61417-8FF0-428B-9F26-FA5110744294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E0F49B-CF97-45AD-8231-3A97CC5F41AA}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{13F61417-8FF0-428B-9F26-FA5110744294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5491C23-664D-454F-9636-40BE30A18738}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>Temp Min (°C)</t>
   </si>
@@ -265,6 +265,69 @@
   </si>
   <si>
     <t>42.3</t>
+  </si>
+  <si>
+    <t>44.3</t>
+  </si>
+  <si>
+    <t>40.8</t>
+  </si>
+  <si>
+    <t>46.1</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>24.2</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>37.3</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>24.9</t>
+  </si>
+  <si>
+    <t>49.6</t>
+  </si>
+  <si>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>22.8</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>49.4</t>
+  </si>
+  <si>
+    <t>52.8</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>51.1</t>
+  </si>
+  <si>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>47.1</t>
+  </si>
+  <si>
+    <t>45.4</t>
   </si>
 </sst>
 </file>
@@ -300,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +417,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,10 +435,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,7 +755,7 @@
       <c r="A3" s="6">
         <v>45803</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="9">
         <v>0.57777777777777783</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -985,15 +1053,290 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <v>45810</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>45810</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0.66388888888888886</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>45811</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0.34305555555555556</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G20" s="6"/>
     </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <v>45811</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>45811</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.65555555555555556</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>45812</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0.65902777777777777</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.34791666666666665</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.49930555555555556</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>45813</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.67847222222222225</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.35138888888888886</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <v>45814</v>
+      </c>
+      <c r="B31" s="8">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1003,7 +1346,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
